--- a/data/ebrydydd_data.xlsx
+++ b/data/ebrydydd_data.xlsx
@@ -1309,9 +1309,6 @@
     <t>d/h-yn-ateb-c</t>
   </si>
   <si>
-    <t>g/rh-yn-ateb-cr</t>
-  </si>
-  <si>
     <t>Diwedd i fyd dydd y Farn</t>
   </si>
   <si>
@@ -1385,6 +1382,9 @@
   </si>
   <si>
     <t>g/g-yn-ateb-g</t>
+  </si>
+  <si>
+    <t>g/rh-yn-ateb-c/r</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>109</v>
@@ -3882,8 +3882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4411,7 +4411,7 @@
         <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -4573,7 +4573,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -4679,7 +4679,7 @@
         <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4704,7 +4704,7 @@
         <v>117</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4737,7 +4737,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
@@ -4746,7 +4746,7 @@
         <v>117</v>
       </c>
       <c r="G60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4762,7 +4762,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -4771,7 +4771,7 @@
         <v>117</v>
       </c>
       <c r="G62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4834,7 +4834,7 @@
         <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F68" t="s">
         <v>117</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -4898,12 +4898,12 @@
         <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -4912,12 +4912,12 @@
         <v>117</v>
       </c>
       <c r="G74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -4926,12 +4926,12 @@
         <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C76" t="s">
         <v>21</v>
@@ -4940,12 +4940,12 @@
         <v>117</v>
       </c>
       <c r="G76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -4954,12 +4954,12 @@
         <v>117</v>
       </c>
       <c r="G77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -4968,12 +4968,12 @@
         <v>117</v>
       </c>
       <c r="G78" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -4982,7 +4982,7 @@
         <v>117</v>
       </c>
       <c r="G79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -5215,7 +5215,7 @@
         <v>117</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>

--- a/data/ebrydydd_data.xlsx
+++ b/data/ebrydydd_data.xlsx
@@ -4,28 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="160" windowWidth="25600" windowHeight="16060" tabRatio="760" activeTab="1"/>
+    <workbookView xWindow="760" yWindow="160" windowWidth="27120" windowHeight="18540" tabRatio="760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="llythrenwau" sheetId="4" r:id="rId1"/>
     <sheet name="dilys" sheetId="8" r:id="rId2"/>
     <sheet name="gwallus" sheetId="11" r:id="rId3"/>
-    <sheet name="llinellau" sheetId="7" r:id="rId4"/>
-    <sheet name="cwpledi" sheetId="13" r:id="rId5"/>
-    <sheet name="englynion" sheetId="14" r:id="rId6"/>
-    <sheet name="lluosill_acenog" sheetId="15" r:id="rId7"/>
-    <sheet name="llafariaid_hir" sheetId="17" r:id="rId8"/>
-    <sheet name="wy_leddf" sheetId="18" r:id="rId9"/>
-    <sheet name="ffonemau" sheetId="16" r:id="rId10"/>
-    <sheet name="aelodau" sheetId="12" r:id="rId11"/>
+    <sheet name="cwpledi" sheetId="13" r:id="rId4"/>
+    <sheet name="englynion" sheetId="14" r:id="rId5"/>
+    <sheet name="lluosill_acenog" sheetId="15" r:id="rId6"/>
+    <sheet name="llafariaid_hir" sheetId="17" r:id="rId7"/>
+    <sheet name="wy_leddf" sheetId="18" r:id="rId8"/>
+    <sheet name="ffonemau" sheetId="16" r:id="rId9"/>
+    <sheet name="aelodau" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="ACE">llythrenwau!$C$1:$C$4</definedName>
-    <definedName name="BAI">llythrenwau!$E$1:$E$18</definedName>
-    <definedName name="CNG">llythrenwau!$A$1:$A$8</definedName>
-    <definedName name="DAD">llythrenwau!$G$1:$G$4</definedName>
-    <definedName name="DEF">llythrenwau!#REF!</definedName>
-    <definedName name="STA">llythrenwau!$I$1:$I$5</definedName>
+    <definedName name="ACE">llythrenwau!$C$2:$C$5</definedName>
+    <definedName name="BAI">llythrenwau!$E$2:$E$19</definedName>
+    <definedName name="CNG">llythrenwau!$A$2:$A$26</definedName>
+    <definedName name="DAD">llythrenwau!$G$2:$G$3</definedName>
+    <definedName name="STA">llythrenwau!$I$2:$I$6</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="459">
   <si>
     <t>Y mae arogl yn goglais</t>
   </si>
@@ -48,9 +46,6 @@
     <t>Y mae Morfudd yn cuddio</t>
   </si>
   <si>
-    <t>Taw â'th sôn, gad fi'n llonydd</t>
-  </si>
-  <si>
     <t>Cân ddiddig ar frig y fron</t>
   </si>
   <si>
@@ -138,12 +133,6 @@
     <t>PRO</t>
   </si>
   <si>
-    <t>Oeddwn gynt iddi'n gaeth</t>
-  </si>
-  <si>
-    <t>Dafydd ap Gwilym</t>
-  </si>
-  <si>
     <t>Neuadd aur newydd yw hon</t>
   </si>
   <si>
@@ -156,12 +145,6 @@
     <t>Unrhyw win - yno yr oedd</t>
   </si>
   <si>
-    <t>s-yn-ateb-sh</t>
-  </si>
-  <si>
-    <t>Lwmp o siwgr a lamp a sach</t>
-  </si>
-  <si>
     <t>r-yn-ateb-rh</t>
   </si>
   <si>
@@ -303,24 +286,12 @@
     <t>ADI</t>
   </si>
   <si>
-    <t>Drwy boen y newidia'r byd</t>
-  </si>
-  <si>
-    <t>Wiliam Llŷn</t>
-  </si>
-  <si>
     <t>n-wreiddgoll</t>
   </si>
   <si>
     <t>Anghenion y Gynghanedd</t>
   </si>
   <si>
-    <t>Clywed Cynghanedd</t>
-  </si>
-  <si>
-    <t>Cerdd Dafod</t>
-  </si>
-  <si>
     <t>Fe ddaeth pob croes i'w oes ef</t>
   </si>
   <si>
@@ -363,9 +334,6 @@
     <t>Gwynt y rhew yn distewi</t>
   </si>
   <si>
-    <t>w-ansillafog</t>
-  </si>
-  <si>
     <t>Llusg lafarog</t>
   </si>
   <si>
@@ -378,18 +346,6 @@
     <t>Gwewyr ysbryd y groesbren</t>
   </si>
   <si>
-    <t>Eithr angau a aeth rhyngom!</t>
-  </si>
-  <si>
-    <t>Tudur Aled</t>
-  </si>
-  <si>
-    <t>Am eu hawr yn ymaros</t>
-  </si>
-  <si>
-    <t>Dic Jones</t>
-  </si>
-  <si>
     <t>AYG</t>
   </si>
   <si>
@@ -405,12 +361,6 @@
     <t>Anghytbwys Ddyrchafedig</t>
   </si>
   <si>
-    <t>CLC</t>
-  </si>
-  <si>
-    <t>CED</t>
-  </si>
-  <si>
     <t>Y Penbwl</t>
   </si>
   <si>
@@ -418,15 +368,6 @@
   </si>
   <si>
     <t>Ochain cras a chanu cerdd</t>
-  </si>
-  <si>
-    <t>Dyn a  a dawn a mawn</t>
-  </si>
-  <si>
-    <t>Dyn a merch a dawn a march</t>
-  </si>
-  <si>
-    <t>Aradr cryf ar odre ceirch</t>
   </si>
   <si>
     <t>Ei awen brudd yn y berth</t>
@@ -586,15 +527,6 @@
     <t>penbwl</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Urdd</t>
-  </si>
-  <si>
-    <t>mrurdd</t>
-  </si>
-  <si>
     <t>cangarŵ</t>
   </si>
   <si>
@@ -1201,9 +1133,6 @@
     <t>olwyn</t>
   </si>
   <si>
-    <t>mrurdd@urdd.org</t>
-  </si>
-  <si>
     <t>Oedd ddoe'n dduw a heddiw'n ddim</t>
   </si>
   <si>
@@ -1216,9 +1145,6 @@
     <t>Oedd ddoe'n gawr, heddiw'n gorrach</t>
   </si>
   <si>
-    <t>dau-n-yn-ateb-un</t>
-  </si>
-  <si>
     <t>Peraidd yw cân pob bardd coeth</t>
   </si>
   <si>
@@ -1318,12 +1244,6 @@
     <t>Ac ar risg gwyw yr ysgaw</t>
   </si>
   <si>
-    <t>g|g-heb-galedu</t>
-  </si>
-  <si>
-    <t>d|d-heb-galedu</t>
-  </si>
-  <si>
     <t>Ei wallt a'I farf yn darfod</t>
   </si>
   <si>
@@ -1385,6 +1305,117 @@
   </si>
   <si>
     <t>g/rh-yn-ateb-c/r</t>
+  </si>
+  <si>
+    <t>CRD</t>
+  </si>
+  <si>
+    <t>CRG</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>SEG</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>SOG</t>
+  </si>
+  <si>
+    <t>TFD</t>
+  </si>
+  <si>
+    <t>TFG</t>
+  </si>
+  <si>
+    <t>TGR</t>
+  </si>
+  <si>
+    <t>TRD</t>
+  </si>
+  <si>
+    <t>TRG</t>
+  </si>
+  <si>
+    <t>TRL</t>
+  </si>
+  <si>
+    <t>Croes drychben</t>
+  </si>
+  <si>
+    <t>Croes gysylltben</t>
+  </si>
+  <si>
+    <t>Croeslusg</t>
+  </si>
+  <si>
+    <t>Dim cynghanedd</t>
+  </si>
+  <si>
+    <t>Sain drychben</t>
+  </si>
+  <si>
+    <t>Sain gadwynog</t>
+  </si>
+  <si>
+    <t>Sain gysylltben</t>
+  </si>
+  <si>
+    <t>Seindraws</t>
+  </si>
+  <si>
+    <t>Seingroes</t>
+  </si>
+  <si>
+    <t>Seinlusg</t>
+  </si>
+  <si>
+    <t>Sain o gyswllt</t>
+  </si>
+  <si>
+    <t>Traws fantach gysylltben</t>
+  </si>
+  <si>
+    <t>Trawsgroes</t>
+  </si>
+  <si>
+    <t>Traws drychben</t>
+  </si>
+  <si>
+    <t>Traws gysylltben</t>
+  </si>
+  <si>
+    <t>Trawslusg</t>
+  </si>
+  <si>
+    <t>Traws fantach drychben</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>d/d-heb-galedu</t>
+  </si>
+  <si>
+    <t>g/g-heb-galedu</t>
+  </si>
+  <si>
+    <t>n/n-yn-ateb-n</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1549,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="365">
+  <cellStyleXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1884,8 +1915,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1913,9 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1938,7 +1980,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1954,8 +1995,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="365">
+  <cellStyles count="379">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2148,6 +2209,13 @@
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2320,6 +2388,13 @@
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2649,16 +2724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
@@ -2669,362 +2744,551 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="B22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3037,762 +3301,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>268</v>
-      </c>
-      <c r="B23" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" t="s">
-        <v>292</v>
-      </c>
-      <c r="C31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" t="s">
-        <v>304</v>
-      </c>
-      <c r="D34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" t="s">
-        <v>313</v>
-      </c>
-      <c r="C37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>318</v>
-      </c>
-      <c r="B39" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>319</v>
-      </c>
-      <c r="B40" t="s">
-        <v>320</v>
-      </c>
-      <c r="C40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" t="s">
-        <v>323</v>
-      </c>
-      <c r="C41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>325</v>
-      </c>
-      <c r="B42" t="s">
-        <v>326</v>
-      </c>
-      <c r="C42" t="s">
-        <v>327</v>
-      </c>
-      <c r="D42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>282</v>
-      </c>
-      <c r="B43" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" t="s">
-        <v>329</v>
-      </c>
-      <c r="D43" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>331</v>
-      </c>
-      <c r="B45" t="s">
-        <v>331</v>
-      </c>
-      <c r="C45" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>334</v>
-      </c>
-      <c r="B46" t="s">
-        <v>335</v>
-      </c>
-      <c r="C46" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>337</v>
-      </c>
-      <c r="B47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" t="s">
-        <v>338</v>
-      </c>
-      <c r="D47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>340</v>
-      </c>
-      <c r="B48" t="s">
-        <v>341</v>
-      </c>
-      <c r="C48" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>346</v>
-      </c>
-      <c r="B50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C51" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>352</v>
-      </c>
-      <c r="B52" t="s">
-        <v>353</v>
-      </c>
-      <c r="C52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" t="s">
-        <v>356</v>
-      </c>
-      <c r="C53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>358</v>
-      </c>
-      <c r="B54" t="s">
-        <v>359</v>
-      </c>
-      <c r="C54" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" t="s">
-        <v>363</v>
-      </c>
-      <c r="D55" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>365</v>
-      </c>
-      <c r="B56" t="s">
-        <v>366</v>
-      </c>
-      <c r="C56" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>312</v>
-      </c>
-      <c r="B57" t="s">
-        <v>368</v>
-      </c>
-      <c r="C57" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>370</v>
-      </c>
-      <c r="B58" t="s">
-        <v>368</v>
-      </c>
-      <c r="C58" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3803,19 +3315,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
@@ -3830,36 +3342,19 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3882,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3896,25 +3391,25 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
@@ -3926,1063 +3421,1068 @@
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
-        <v>156</v>
+      <c r="A2" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
-        <v>145</v>
+      <c r="A4" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="16" t="s">
-        <v>147</v>
+      <c r="A5" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="16" t="s">
-        <v>146</v>
+      <c r="A7" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="16" t="s">
-        <v>144</v>
+      <c r="A10" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="16" t="s">
-        <v>140</v>
+      <c r="A11" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="16" t="s">
-        <v>402</v>
+      <c r="A12" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="16" t="s">
-        <v>390</v>
+      <c r="A16" s="15" t="s">
+        <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
-        <v>392</v>
+      <c r="A17" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
         <v>393</v>
       </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" t="s">
-        <v>419</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="16" t="s">
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
         <v>396</v>
       </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" t="s">
-        <v>420</v>
-      </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="16" t="s">
-        <v>400</v>
+      <c r="A39" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G39" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="16" t="s">
-        <v>395</v>
+      <c r="A40" s="15" t="s">
+        <v>371</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="23" t="s">
-        <v>15</v>
+      <c r="A41" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F48" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="F49" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="F50" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="F51" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="F52" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="16" t="s">
-        <v>10</v>
+      <c r="A54" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="16" t="s">
-        <v>424</v>
+      <c r="A55" s="15" t="s">
+        <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G55" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="16" t="s">
-        <v>415</v>
+      <c r="A57" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G57" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="16" t="s">
-        <v>413</v>
+      <c r="A58" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G58" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="16" t="s">
-        <v>422</v>
+      <c r="A60" s="15" t="s">
+        <v>398</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G60" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="16" t="s">
-        <v>423</v>
+      <c r="A62" s="15" t="s">
+        <v>399</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G62" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="16" t="s">
-        <v>414</v>
+      <c r="A63" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="G63" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="16" t="s">
-        <v>99</v>
+      <c r="A64" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="16" t="s">
-        <v>100</v>
+      <c r="A65" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="16" t="s">
-        <v>98</v>
+      <c r="A66" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="16" t="s">
-        <v>97</v>
+      <c r="A67" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G73" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G75" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G77" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G78" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G79" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5013,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5027,25 +4527,25 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
@@ -5057,190 +4557,157 @@
       <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="17" t="s">
-        <v>132</v>
+      <c r="A2" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A3" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="17" t="s">
-        <v>137</v>
+      <c r="A4" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="17" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>29</v>
+      <c r="A11" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:O11">
     <sortCondition ref="A2:A11"/>
   </sortState>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F16:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F1048576 F2 F4:F11">
       <formula1>DAD</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14 D16:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D1048576 D2 D4:D11">
       <formula1>ACE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14 C16:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C1048576 C2 C4:C11">
       <formula1>CNG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14 E16:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12:E1048576 E2 E4:E11">
       <formula1>BAI</formula1>
     </dataValidation>
   </dataValidations>
@@ -5256,157 +4723,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>122</v>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="30">
+      <c r="A2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G6">
-    <sortCondition descending="1" ref="F5"/>
-  </sortState>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>DAD</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>ACE</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>CNG</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5419,24 +4772,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>19</v>
+      <c r="A1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
@@ -5447,13 +4800,16 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>175</v>
-      </c>
+    <row r="2" spans="1:10" ht="60">
+      <c r="A2" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5468,48 +4824,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="38.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="60">
-      <c r="A2" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="29"/>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5520,52 +4884,42 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>191</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5580,42 +4934,57 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5630,61 +4999,748 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>348</v>
+      </c>
+      <c r="B58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
